--- a/WindowsFormsApplicationTest/Tests.xlsx
+++ b/WindowsFormsApplicationTest/Tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/779009013c770639/Coding/Examples/MCX basic/WindowsFormsApplicationTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveNod\OneDrive\Coding\Examples\MCX basic\WindowsFormsApplicationTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>abs(x) - Returns the absolute value of a variable.</t>
   </si>
@@ -540,7 +540,7 @@
   <dimension ref="A2:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +999,9 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
